--- a/simulations/cleaned_inclusion_exclusion/Leenaars_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Leenaars_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.4768439108061749</v>
+        <v>0.4734133790737564</v>
       </c>
       <c r="D3">
-        <v>0.8216123499142367</v>
+        <v>0.8267581475128645</v>
       </c>
       <c r="E3">
-        <v>0.9828473413379074</v>
+        <v>0.9845626072041166</v>
       </c>
       <c r="F3">
         <v>0.9982847341337907</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.5709534368070953</v>
+        <v>0.5669345898004434</v>
       </c>
       <c r="I3">
-        <v>0.1126699265251786</v>
+        <v>0.1152489023255261</v>
       </c>
       <c r="J3">
-        <v>0.3773584905660378</v>
+        <v>0.3739279588336192</v>
       </c>
       <c r="K3">
-        <v>1039.339622641509</v>
+        <v>1056.445969125214</v>
       </c>
       <c r="L3">
         <v>58</v>
@@ -755,34 +755,34 @@
         <v>524</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R3">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="S3">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="T3">
-        <v>1103</v>
+        <v>1114</v>
       </c>
       <c r="U3">
-        <v>1742</v>
+        <v>1726</v>
       </c>
       <c r="V3">
-        <v>6613</v>
+        <v>6594</v>
       </c>
       <c r="W3">
-        <v>6507</v>
+        <v>6495</v>
       </c>
       <c r="X3">
-        <v>6150</v>
+        <v>6122</v>
       </c>
       <c r="Y3">
-        <v>5530</v>
+        <v>5519</v>
       </c>
       <c r="Z3">
-        <v>4891</v>
+        <v>4907</v>
       </c>
       <c r="AA3">
         <v>525</v>
@@ -800,19 +800,19 @@
         <v>59</v>
       </c>
       <c r="AF3">
-        <v>0.996985</v>
+        <v>0.99412</v>
       </c>
       <c r="AG3">
-        <v>0.981004</v>
+        <v>0.979195</v>
       </c>
       <c r="AH3">
-        <v>0.927182</v>
+        <v>0.922961</v>
       </c>
       <c r="AI3">
-        <v>0.83371</v>
+        <v>0.832052</v>
       </c>
       <c r="AJ3">
-        <v>0.737374</v>
+        <v>0.7397860000000001</v>
       </c>
     </row>
   </sheetData>
